--- a/excel_with_subclasses/with_count/bridge_with_count.xlsx
+++ b/excel_with_subclasses/with_count/bridge_with_count.xlsx
@@ -433,7 +433,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5739</v>
+        <v>5747</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2009</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1489</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="5">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="10">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13">
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18">
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24">
@@ -3834,7 +3834,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
